--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value78.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value78.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.432559208211147</v>
+        <v>3.817903995513916</v>
       </c>
       <c r="B1">
-        <v>1.562332521948045</v>
+        <v>5.012856960296631</v>
       </c>
       <c r="C1">
-        <v>1.583207137181028</v>
+        <v>1.37090802192688</v>
       </c>
       <c r="D1">
-        <v>2.097053963736951</v>
+        <v>0.414430558681488</v>
       </c>
       <c r="E1">
-        <v>3.281615486025313</v>
+        <v>0.3257473111152649</v>
       </c>
     </row>
   </sheetData>
